--- a/tests/files/bulk_curation_upload_good.xlsx
+++ b/tests/files/bulk_curation_upload_good.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jward3/projects/clingen/tests/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9AAA8BA2-400C-7040-9382-66D06FC0F659}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CCD0C0D-2783-DE4C-BFD5-50090D997600}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
-  <si>
-    <t>rationale_notes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Assertion</t>
   </si>
@@ -58,63 +55,9 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Hypertrophic cardiomyopathy</t>
-  </si>
-  <si>
-    <t>Osteoboneopathy</t>
-  </si>
-  <si>
-    <t>Cardiopulmonary Sadness</t>
-  </si>
-  <si>
-    <t>Neuropathy</t>
-  </si>
-  <si>
-    <t>ID/Autism GCEP</t>
-  </si>
-  <si>
-    <t>Epilepsy GCEP</t>
-  </si>
-  <si>
-    <t>Aminoacidopathy GCEP</t>
-  </si>
-  <si>
-    <t>Fatty Acid Oxidation GCEP</t>
-  </si>
-  <si>
-    <t>Breast and Ovarian Cancer GCEP</t>
-  </si>
-  <si>
-    <t>Hearing Loss GCEP</t>
-  </si>
-  <si>
-    <t>Colon Cancer and Polyposis GCEP</t>
-  </si>
-  <si>
-    <t>Expert Panels</t>
-  </si>
-  <si>
     <t>Rationales</t>
   </si>
   <si>
-    <t>precuration_date</t>
-  </si>
-  <si>
-    <t>disease_entity_assigned_date</t>
-  </si>
-  <si>
-    <t>curation_provisional_date</t>
-  </si>
-  <si>
-    <t>curation_in_progress_date</t>
-  </si>
-  <si>
-    <t>curation_approved_date</t>
-  </si>
-  <si>
-    <t>disease_entity if there is no mondo id</t>
-  </si>
-  <si>
     <t>curation types</t>
   </si>
   <si>
@@ -151,9 +94,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Expert Panel Id</t>
-  </si>
-  <si>
     <t>Curator Email</t>
   </si>
   <si>
@@ -166,9 +106,6 @@
     <t>Curation Type</t>
   </si>
   <si>
-    <t>date_uploaded</t>
-  </si>
-  <si>
     <t>BRCA1</t>
   </si>
   <si>
@@ -217,16 +154,70 @@
     <t>OMIM ID 10</t>
   </si>
   <si>
-    <t>rationale 1</t>
-  </si>
-  <si>
-    <t>rationale 2</t>
-  </si>
-  <si>
-    <t>rationale 3</t>
-  </si>
-  <si>
-    <t>rationale 4</t>
+    <t>Disease entity if there is no mondo id</t>
+  </si>
+  <si>
+    <t>Rationale 1</t>
+  </si>
+  <si>
+    <t>Rationale 2</t>
+  </si>
+  <si>
+    <t>Rationale 3</t>
+  </si>
+  <si>
+    <t>Rationale 4</t>
+  </si>
+  <si>
+    <t>Rationale Notes</t>
+  </si>
+  <si>
+    <t>PMID 1</t>
+  </si>
+  <si>
+    <t>PMID 2</t>
+  </si>
+  <si>
+    <t>PMID 3</t>
+  </si>
+  <si>
+    <t>PMID 4</t>
+  </si>
+  <si>
+    <t>PMID 5</t>
+  </si>
+  <si>
+    <t>PMID 6</t>
+  </si>
+  <si>
+    <t>PMID 7</t>
+  </si>
+  <si>
+    <t>PMID 8</t>
+  </si>
+  <si>
+    <t>PMID 9</t>
+  </si>
+  <si>
+    <t>PMID 10</t>
+  </si>
+  <si>
+    <t>Uploaded Date</t>
+  </si>
+  <si>
+    <t>Precuration Date</t>
+  </si>
+  <si>
+    <t>Disease Entity Assigned Date</t>
+  </si>
+  <si>
+    <t>Curation In Progress Date</t>
+  </si>
+  <si>
+    <t>Curation Provisional Date</t>
+  </si>
+  <si>
+    <t>Curation Approved Date</t>
   </si>
 </sst>
 </file>
@@ -234,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,16 +259,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -294,33 +305,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -351,31 +355,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8E16DC9-92C3-F04E-9B6F-901D04FAAAB6}" name="Table2" displayName="Table2" ref="D2:E13" totalsRowShown="0">
-  <autoFilter ref="D2:E13" xr:uid="{1F4386C6-B2F5-864D-9766-65B59114FC4B}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0A01DCF8-DC21-604E-88D5-7BA4F3D262A4}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{D0390A4E-95D3-F34B-8273-1E12E438DF44}" name="Name"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A102D704-4E04-7C41-BE73-2426AD31AEC4}" name="Table3" displayName="Table3" ref="K2:M7" totalsRowShown="0">
-  <autoFilter ref="K2:M7" xr:uid="{C176C88B-5B74-4F4B-B381-A3DB332913DC}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6A67F328-C5A3-B046-B904-C91A32C9DD2E}" name="id"/>
-    <tableColumn id="2" xr3:uid="{A8437228-08D8-C14E-ADD1-7DD24AEC3545}" name="name"/>
-    <tableColumn id="3" xr3:uid="{C5C59AD8-2D30-C74E-A965-F8375581C2C6}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7D7B7710-9121-2C4E-B591-4E55B84CC9CA}" name="Table36" displayName="Table36" ref="G2:I7" totalsRowShown="0">
-  <autoFilter ref="G2:I7" xr:uid="{5E786F4B-029A-664E-A78E-578529E1EFB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7D7B7710-9121-2C4E-B591-4E55B84CC9CA}" name="Table36" displayName="Table36" ref="D2:F7" totalsRowShown="0">
+  <autoFilter ref="D2:F7" xr:uid="{5E786F4B-029A-664E-A78E-578529E1EFB3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B6EB4475-F9ED-1747-ABA2-184A97B85A8C}" name="id"/>
     <tableColumn id="2" xr3:uid="{71C85EDB-89B2-8447-AB53-499A10114DC8}" name="name"/>
@@ -682,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E3D26-773C-0343-9D4F-0C8AA45D4AC9}">
-  <dimension ref="A1:AA254"/>
+  <dimension ref="A1:AJ254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,14 +674,18 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="12" width="10.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.83203125" customWidth="1"/>
-    <col min="16" max="16" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -708,1326 +693,1395 @@
     <col min="25" max="25" width="22.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AA1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AB1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AC1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AD1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AE1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AF1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AG1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AH1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AI1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13">
+        <v>608758</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="N2"/>
+      <c r="P2" t="s">
         <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="10">
-        <v>93849384</v>
       </c>
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="9">
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="8">
         <v>42370</v>
       </c>
-      <c r="W2" s="9">
+      <c r="AF2" s="8">
         <v>42401</v>
       </c>
-      <c r="X2" s="9">
+      <c r="AG2" s="8">
         <v>42401</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+    </row>
+    <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="10">
-        <v>98239823</v>
-      </c>
-      <c r="F3" s="11">
-        <v>29849283</v>
-      </c>
-      <c r="G3" s="11">
-        <v>29813918</v>
-      </c>
-      <c r="H3" s="11">
-        <v>198191281</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13">
+        <v>605724</v>
+      </c>
+      <c r="E3" s="13">
+        <v>194070</v>
+      </c>
+      <c r="F3" s="13">
+        <v>114480</v>
+      </c>
+      <c r="G3" s="13">
+        <v>612555</v>
+      </c>
+      <c r="H3" s="13">
+        <v>613029</v>
+      </c>
+      <c r="I3" s="13">
+        <v>155255</v>
+      </c>
+      <c r="J3" s="13">
+        <v>613347</v>
+      </c>
+      <c r="K3" s="13">
+        <v>176807</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="9">
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3">
+        <v>345364</v>
+      </c>
+      <c r="V3">
+        <v>3453452345245</v>
+      </c>
+      <c r="W3">
+        <v>2452452451</v>
+      </c>
+      <c r="AE3" s="8">
         <v>42860</v>
       </c>
-      <c r="W3" s="9">
+      <c r="AF3" s="8">
         <v>42863</v>
       </c>
-      <c r="X3" s="9">
+      <c r="AG3" s="8">
         <v>42864</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="AH3" s="8">
         <v>42865</v>
       </c>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="10">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9">
         <v>18329238</v>
       </c>
+      <c r="L4" s="9"/>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
         <v>1</v>
       </c>
-      <c r="R4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="9">
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4">
+        <v>1234</v>
+      </c>
+      <c r="AE4" s="8">
         <v>42860</v>
       </c>
-      <c r="W4" s="9">
+      <c r="AF4" s="8">
         <v>42863</v>
       </c>
-      <c r="X4" s="9">
+      <c r="AG4" s="8">
         <v>42864</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="AH4" s="8">
         <v>42865</v>
       </c>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
+      <c r="B24" s="4"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
+      <c r="B30" s="4"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
+      <c r="B31" s="4"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
+      <c r="B32" s="4"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
+      <c r="B33" s="4"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
+      <c r="B34" s="4"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
+      <c r="B35" s="4"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
+      <c r="B36" s="4"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
+      <c r="B37" s="4"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
+      <c r="B38" s="4"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
+      <c r="B39" s="4"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
+      <c r="B40" s="4"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
+      <c r="B41" s="4"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
+      <c r="B42" s="4"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
+      <c r="B43" s="4"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
+      <c r="B44" s="4"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B45" s="5"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
+      <c r="B45" s="4"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
+      <c r="B46" s="4"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
+      <c r="B47" s="4"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
+      <c r="B48" s="4"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
+      <c r="B49" s="4"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
+      <c r="B50" s="4"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B51" s="5"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
+      <c r="B51" s="4"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B52" s="5"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
+      <c r="B52" s="4"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B53" s="5"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
+      <c r="B53" s="4"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B54" s="5"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
+      <c r="B54" s="4"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B55" s="5"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
+      <c r="B55" s="4"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B56" s="5"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
+      <c r="B56" s="4"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B57" s="5"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
+      <c r="B57" s="4"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B58" s="5"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
+      <c r="B58" s="4"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B59" s="5"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
+      <c r="B59" s="4"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B60" s="5"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B61" s="5"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B62" s="5"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B63" s="5"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B64" s="5"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="5"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="5"/>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="5"/>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="5"/>
+      <c r="B68" s="4"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="5"/>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="5"/>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="5"/>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="5"/>
+      <c r="B72" s="4"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="5"/>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="5"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="5"/>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
+      <c r="B76" s="4"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="5"/>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="5"/>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="5"/>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="5"/>
+      <c r="B80" s="4"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="5"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="5"/>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="5"/>
+      <c r="B83" s="4"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="5"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="5"/>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="5"/>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="5"/>
+      <c r="B87" s="4"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="5"/>
+      <c r="B88" s="4"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="5"/>
+      <c r="B89" s="4"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="5"/>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="5"/>
+      <c r="B91" s="4"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="5"/>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="5"/>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="5"/>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="5"/>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="5"/>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="5"/>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="5"/>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="5"/>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="5"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="5"/>
+      <c r="B101" s="4"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="5"/>
+      <c r="B102" s="4"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="5"/>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="5"/>
+      <c r="B104" s="4"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="5"/>
+      <c r="B105" s="4"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="5"/>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="5"/>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="5"/>
+      <c r="B108" s="4"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="5"/>
+      <c r="B109" s="4"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="5"/>
+      <c r="B110" s="4"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="5"/>
+      <c r="B111" s="4"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="5"/>
+      <c r="B112" s="4"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="5"/>
+      <c r="B113" s="4"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="5"/>
+      <c r="B114" s="4"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="5"/>
+      <c r="B115" s="4"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="5"/>
+      <c r="B116" s="4"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="5"/>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="5"/>
+      <c r="B118" s="4"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="5"/>
+      <c r="B119" s="4"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="5"/>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="5"/>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="5"/>
+      <c r="B122" s="4"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="5"/>
+      <c r="B123" s="4"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="5"/>
+      <c r="B124" s="4"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="5"/>
+      <c r="B125" s="4"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="5"/>
+      <c r="B126" s="4"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="5"/>
+      <c r="B127" s="4"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="5"/>
+      <c r="B128" s="4"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="5"/>
+      <c r="B129" s="4"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="5"/>
+      <c r="B130" s="4"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="5"/>
+      <c r="B131" s="4"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="5"/>
+      <c r="B132" s="4"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="5"/>
+      <c r="B133" s="4"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="5"/>
+      <c r="B134" s="4"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="5"/>
+      <c r="B135" s="4"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="5"/>
+      <c r="B136" s="4"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="5"/>
+      <c r="B137" s="4"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="5"/>
+      <c r="B138" s="4"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="5"/>
+      <c r="B139" s="4"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="5"/>
+      <c r="B140" s="4"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="5"/>
+      <c r="B141" s="4"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="5"/>
+      <c r="B142" s="4"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="5"/>
+      <c r="B143" s="4"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="5"/>
+      <c r="B144" s="4"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="5"/>
+      <c r="B145" s="4"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="5"/>
+      <c r="B146" s="4"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="5"/>
+      <c r="B147" s="4"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="5"/>
+      <c r="B148" s="4"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="5"/>
+      <c r="B149" s="4"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="5"/>
+      <c r="B150" s="4"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="5"/>
+      <c r="B151" s="4"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152" s="5"/>
+      <c r="B152" s="4"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="5"/>
+      <c r="B153" s="4"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="5"/>
+      <c r="B154" s="4"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" s="5"/>
+      <c r="B155" s="4"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="5"/>
+      <c r="B156" s="4"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="5"/>
+      <c r="B157" s="4"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B158" s="5"/>
+      <c r="B158" s="4"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="5"/>
+      <c r="B159" s="4"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="5"/>
+      <c r="B160" s="4"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="5"/>
+      <c r="B161" s="4"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="5"/>
+      <c r="B162" s="4"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B163" s="5"/>
+      <c r="B163" s="4"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164" s="5"/>
+      <c r="B164" s="4"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165" s="5"/>
+      <c r="B165" s="4"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="5"/>
+      <c r="B166" s="4"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" s="5"/>
+      <c r="B167" s="4"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="5"/>
+      <c r="B168" s="4"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="5"/>
+      <c r="B169" s="4"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B170" s="5"/>
+      <c r="B170" s="4"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B171" s="5"/>
+      <c r="B171" s="4"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="5"/>
+      <c r="B172" s="4"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" s="5"/>
+      <c r="B173" s="4"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174" s="5"/>
+      <c r="B174" s="4"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="5"/>
+      <c r="B175" s="4"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B176" s="5"/>
+      <c r="B176" s="4"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" s="5"/>
+      <c r="B177" s="4"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="5"/>
+      <c r="B178" s="4"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179" s="5"/>
+      <c r="B179" s="4"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="5"/>
+      <c r="B180" s="4"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181" s="5"/>
+      <c r="B181" s="4"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="5"/>
+      <c r="B182" s="4"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="5"/>
+      <c r="B183" s="4"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B184" s="5"/>
+      <c r="B184" s="4"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B185" s="5"/>
+      <c r="B185" s="4"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186" s="5"/>
+      <c r="B186" s="4"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B187" s="5"/>
+      <c r="B187" s="4"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B188" s="5"/>
+      <c r="B188" s="4"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" s="5"/>
+      <c r="B189" s="4"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B190" s="5"/>
+      <c r="B190" s="4"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B191" s="5"/>
+      <c r="B191" s="4"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B192" s="5"/>
+      <c r="B192" s="4"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="5"/>
+      <c r="B193" s="4"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="5"/>
+      <c r="B194" s="4"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" s="5"/>
+      <c r="B195" s="4"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196" s="5"/>
+      <c r="B196" s="4"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197" s="5"/>
+      <c r="B197" s="4"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198" s="5"/>
+      <c r="B198" s="4"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B199" s="5"/>
+      <c r="B199" s="4"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" s="5"/>
+      <c r="B200" s="4"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B201" s="5"/>
+      <c r="B201" s="4"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="5"/>
+      <c r="B202" s="4"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203" s="5"/>
+      <c r="B203" s="4"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204" s="5"/>
+      <c r="B204" s="4"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205" s="5"/>
+      <c r="B205" s="4"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206" s="5"/>
+      <c r="B206" s="4"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B207" s="5"/>
+      <c r="B207" s="4"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B208" s="5"/>
+      <c r="B208" s="4"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B209" s="5"/>
+      <c r="B209" s="4"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" s="5"/>
+      <c r="B210" s="4"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B211" s="5"/>
+      <c r="B211" s="4"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B212" s="5"/>
+      <c r="B212" s="4"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B213" s="5"/>
+      <c r="B213" s="4"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B214" s="5"/>
+      <c r="B214" s="4"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B215" s="5"/>
+      <c r="B215" s="4"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" s="5"/>
+      <c r="B216" s="4"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B217" s="5"/>
+      <c r="B217" s="4"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" s="5"/>
+      <c r="B218" s="4"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" s="5"/>
+      <c r="B219" s="4"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="5"/>
+      <c r="B220" s="4"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" s="5"/>
+      <c r="B221" s="4"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B222" s="5"/>
+      <c r="B222" s="4"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B223" s="5"/>
+      <c r="B223" s="4"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" s="5"/>
+      <c r="B224" s="4"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B225" s="5"/>
+      <c r="B225" s="4"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" s="5"/>
+      <c r="B226" s="4"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B227" s="5"/>
+      <c r="B227" s="4"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B228" s="5"/>
+      <c r="B228" s="4"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" s="5"/>
+      <c r="B229" s="4"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B230" s="5"/>
+      <c r="B230" s="4"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B231" s="5"/>
+      <c r="B231" s="4"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B232" s="5"/>
+      <c r="B232" s="4"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B233" s="5"/>
+      <c r="B233" s="4"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B234" s="5"/>
+      <c r="B234" s="4"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B235" s="5"/>
+      <c r="B235" s="4"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B236" s="5"/>
+      <c r="B236" s="4"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B237" s="4"/>
+      <c r="B237" s="3"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B238" s="4"/>
+      <c r="B238" s="3"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" s="4"/>
+      <c r="B239" s="3"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B240" s="4"/>
+      <c r="B240" s="3"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" s="4"/>
+      <c r="B241" s="3"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B242" s="4"/>
+      <c r="B242" s="3"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B243" s="4"/>
+      <c r="B243" s="3"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B244" s="4"/>
+      <c r="B244" s="3"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B245" s="4"/>
+      <c r="B245" s="3"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B246" s="4"/>
+      <c r="B246" s="3"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B247" s="4"/>
+      <c r="B247" s="3"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B248" s="4"/>
+      <c r="B248" s="3"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B249" s="4"/>
+      <c r="B249" s="3"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B250" s="4"/>
+      <c r="B250" s="3"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B251" s="4"/>
+      <c r="B251" s="3"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B252" s="4"/>
+      <c r="B252" s="3"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B253" s="4"/>
+      <c r="B253" s="3"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B254" s="4"/>
+      <c r="B254" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A80EC79B-2F5D-8F44-B6B0-940454424882}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{B36354CF-ECBE-8846-A16E-88DC87860498}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{DF605ACA-064E-9F45-AC4B-73E8A56122D1}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5D366545-0D5B-3E4C-96EF-4A59E9E12CF9}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{80809586-249A-F34B-A718-BC19FE3F4967}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{CD3528E3-4205-3B4D-A237-E6A23E819E8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29A5C92E-2A51-8845-96FE-684BC3DDCAE2}">
           <x14:formula1>
             <xm:f>lookups!$L$3:$L$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D5:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0726DCE-314E-1F40-BD9F-58E32A57A97C}">
           <x14:formula1>
             <xm:f>lookups!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q5:Q144 Q2:T4 R5:T178</xm:sqref>
+          <xm:sqref>Q5:Q144 R5:T178</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B610FC90-0C22-D344-92ED-5DAE0D29B5E0}">
+          <x14:formula1>
+            <xm:f>lookups!$E$3:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{061D1009-78E4-3641-988F-1235728E08F1}">
+          <x14:formula1>
+            <xm:f>lookups!$B$3:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:S4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2037,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2336B327-67B0-B54C-8AB1-1809F42E0D2F}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2049,7 +2103,7 @@
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="65.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.5" customWidth="1"/>
@@ -2058,289 +2112,166 @@
     <col min="13" max="13" width="65.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>22</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2364,11 +2295,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="4">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tests/files/bulk_curation_upload_good.xlsx
+++ b/tests/files/bulk_curation_upload_good.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jward3/projects/clingen/tests/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CCD0C0D-2783-DE4C-BFD5-50090D997600}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1CF884A9-FB4A-A740-BF1D-AC90F9E87E96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <dimension ref="A1:AJ254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,7 +923,7 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -933,8 +933,8 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9">
-        <v>18329238</v>
+      <c r="D4" s="13">
+        <v>176807</v>
       </c>
       <c r="L4" s="9"/>
       <c r="N4"/>
@@ -2058,7 +2058,7 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29A5C92E-2A51-8845-96FE-684BC3DDCAE2}">
           <x14:formula1>
             <xm:f>lookups!$L$3:$L$6</xm:f>
@@ -2069,19 +2069,13 @@
           <x14:formula1>
             <xm:f>lookups!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q5:Q144 R5:T178</xm:sqref>
+          <xm:sqref>Q5:Q144 R5:T178 P2:S4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B610FC90-0C22-D344-92ED-5DAE0D29B5E0}">
           <x14:formula1>
             <xm:f>lookups!$E$3:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{061D1009-78E4-3641-988F-1235728E08F1}">
-          <x14:formula1>
-            <xm:f>lookups!$B$3:$B$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>P2:S4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/tests/files/bulk_curation_upload_good.xlsx
+++ b/tests/files/bulk_curation_upload_good.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jward3/projects/clingen/tests/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yugen/code/gene-tracker/tests/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1CF884A9-FB4A-A740-BF1D-AC90F9E87E96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733B550-959E-7D49-80BA-1B2BE48E01F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
   </bookViews>
@@ -202,9 +202,6 @@
     <t>PMID 10</t>
   </si>
   <si>
-    <t>Uploaded Date</t>
-  </si>
-  <si>
     <t>Precuration Date</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Curation Approved Date</t>
+  </si>
+  <si>
+    <t>Date Uploaded</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E3D26-773C-0343-9D4F-0C8AA45D4AC9}">
   <dimension ref="A1:AJ254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,22 +793,22 @@
         <v>57</v>
       </c>
       <c r="AE1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.2">

--- a/tests/files/bulk_curation_upload_good.xlsx
+++ b/tests/files/bulk_curation_upload_good.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yugen/code/gene-tracker/tests/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733B550-959E-7D49-80BA-1B2BE48E01F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67BB5E4-95FE-FA48-968A-1B2BEE586882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
   </bookViews>
   <sheets>
     <sheet name="Curations" sheetId="1" r:id="rId1"/>
     <sheet name="lookups" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,9 +120,6 @@
     <t>BRCA1</t>
   </si>
   <si>
-    <t>sirs@unc.edu</t>
-  </si>
-  <si>
     <t>notes on the rationale</t>
   </si>
   <si>
@@ -218,6 +226,9 @@
   </si>
   <si>
     <t>Date Uploaded</t>
+  </si>
+  <si>
+    <t>super.user@example.com</t>
   </si>
 </sst>
 </file>
@@ -665,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E3D26-773C-0343-9D4F-0C8AA45D4AC9}">
   <dimension ref="A1:AJ254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,103 +723,103 @@
         <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.2">
@@ -816,7 +827,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -833,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U2">
         <v>123</v>
@@ -853,10 +864,10 @@
     </row>
     <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -888,7 +899,7 @@
       <c r="L3" s="9"/>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
@@ -897,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U3">
         <v>345364</v>
@@ -925,10 +936,10 @@
     </row>
     <row r="4" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -939,7 +950,7 @@
       <c r="L4" s="9"/>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
         <v>0</v>
@@ -948,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U4">
         <v>1234</v>
@@ -2051,8 +2062,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{5D366545-0D5B-3E4C-96EF-4A59E9E12CF9}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{80809586-249A-F34B-A718-BC19FE3F4967}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{CD3528E3-4205-3B4D-A237-E6A23E819E8A}"/>
+    <hyperlink ref="B3:B4" r:id="rId2" display="super.user@example.com" xr:uid="{A6EAE983-D58D-894F-9A21-E7B60AF4A528}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
